--- a/FinalReport/appendices/test_procedure_Samuel.xlsx
+++ b/FinalReport/appendices/test_procedure_Samuel.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelian\Documents\GitHub\Capstone\FinalReport\appendices\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="474" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="474"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -44,7 +48,7 @@
     <t>Nelian Colon</t>
   </si>
   <si>
-    <t> </t>
+    <t/>
   </si>
   <si>
     <t>Tools to be Used</t>
@@ -683,59 +687,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="D\-MMM\-YY" numFmtId="165"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-    </font>
-    <font>
+      <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <color rgb="FF00000A"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <color rgb="FF00000A"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
@@ -759,14 +744,14 @@
     </fill>
   </fills>
   <borders count="15">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -781,286 +766,263 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thick"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thick"/>
-      <top style="thick"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thick"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thick"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="hair"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thick"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="true" borderId="1" fillId="2" fontId="4" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="14" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Output" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1119,111 +1081,388 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C10" activeCellId="0" pane="topLeft" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.5465587044534"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1578947368421"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.53441295546559"/>
+    <col min="1" max="1" width="15"/>
+    <col min="2" max="2" width="36.140625"/>
+    <col min="3" max="3" width="43.5703125"/>
+    <col min="4" max="4" width="34.140625"/>
+    <col min="5" max="5" width="18.28515625" style="6"/>
+    <col min="6" max="6" width="36.85546875" style="3"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="5">
         <v>41584</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="5" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1236,998 +1475,998 @@
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="14">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="15">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="16">
-      <c r="A16" s="10" t="s">
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="17">
-      <c r="A17" s="19" t="s">
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="18">
-      <c r="A18" s="10" t="s">
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="19">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="20">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="21">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="22">
-      <c r="A22" s="10" t="s">
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="23">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="24">
-      <c r="A24" s="10" t="s">
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="25">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="26">
-      <c r="A26" s="10" t="s">
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="27">
-      <c r="A27" s="10" t="s">
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="28">
-      <c r="A28" s="10" t="s">
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="29">
-      <c r="A29" s="10" t="s">
+      <c r="E28" s="26">
+        <v>1</v>
+      </c>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="30">
-      <c r="A30" s="10" t="s">
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="31">
-      <c r="A31" s="10" t="s">
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="31"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="32">
-      <c r="A32" s="10" t="s">
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="33">
-      <c r="A33" s="10" t="s">
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="34">
-      <c r="A34" s="10" t="s">
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="35">
-      <c r="A35" s="10" t="s">
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="36">
-      <c r="A36" s="10" t="s">
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="37">
-      <c r="A37" s="10" t="s">
+      <c r="E36" s="16">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="38">
-      <c r="A38" s="10" t="s">
+      <c r="E37" s="16">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="39">
-      <c r="A39" s="10" t="s">
+      <c r="E38" s="16">
+        <v>1</v>
+      </c>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="40">
-      <c r="A40" s="10" t="s">
+      <c r="E39" s="16">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="41">
-      <c r="A41" s="10" t="s">
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="42">
-      <c r="A42" s="10" t="s">
+      <c r="E41" s="16">
+        <v>1</v>
+      </c>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="43">
-      <c r="A43" s="10" t="s">
+      <c r="E42" s="16">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="44">
-      <c r="A44" s="10" t="s">
+      <c r="E43" s="16">
+        <v>1</v>
+      </c>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="45">
-      <c r="A45" s="10" t="s">
+      <c r="E44" s="16">
+        <v>1</v>
+      </c>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="46">
-      <c r="A46" s="10" t="s">
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="47">
-      <c r="A47" s="10" t="s">
+      <c r="E46" s="16">
+        <v>1</v>
+      </c>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="48">
-      <c r="A48" s="10" t="s">
+      <c r="E47" s="16">
+        <v>1</v>
+      </c>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="49">
-      <c r="A49" s="10" t="s">
+      <c r="E48" s="16">
+        <v>1</v>
+      </c>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="50">
-      <c r="A50" s="10" t="s">
+      <c r="E49" s="16">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="51">
-      <c r="A51" s="10" t="s">
+      <c r="E50" s="16">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E51" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="52">
-      <c r="A52" s="10" t="s">
+      <c r="E51" s="16">
+        <v>1</v>
+      </c>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="53">
-      <c r="A53" s="10" t="s">
+      <c r="E52" s="16">
+        <v>1</v>
+      </c>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="14"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="54">
-      <c r="A54" s="10" t="s">
+      <c r="E53" s="16">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="55">
-      <c r="A55" s="10" t="s">
+      <c r="E54" s="16">
+        <v>1</v>
+      </c>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="56">
-      <c r="A56" s="10" t="s">
+      <c r="E55" s="16">
+        <v>1</v>
+      </c>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="57">
-      <c r="A57" s="10" t="s">
+      <c r="E56" s="16">
+        <v>1</v>
+      </c>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="58">
-      <c r="A58" s="10" t="s">
+      <c r="E57" s="16">
+        <v>1</v>
+      </c>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="59">
-      <c r="A59" s="10" t="s">
+      <c r="E58" s="16">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E59" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="60">
-      <c r="A60" s="10" t="s">
+      <c r="E59" s="16">
+        <v>1</v>
+      </c>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="61">
-      <c r="A61" s="10" t="s">
+      <c r="E60" s="16">
+        <v>1</v>
+      </c>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E61" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="62">
-      <c r="A62" s="10" t="s">
+      <c r="E61" s="16">
+        <v>1</v>
+      </c>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="63">
-      <c r="A63" s="10" t="s">
+      <c r="E62" s="16">
+        <v>1</v>
+      </c>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="64">
-      <c r="A64" s="10" t="s">
+      <c r="E63" s="16">
+        <v>1</v>
+      </c>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="65">
-      <c r="A65" s="10" t="s">
+      <c r="E64" s="16">
+        <v>1</v>
+      </c>
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="32"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="66">
-      <c r="A66" s="10" t="s">
+      <c r="E65" s="16">
+        <v>1</v>
+      </c>
+      <c r="F65" s="31"/>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="E66" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="31"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="s">
+      <c r="E66" s="16">
+        <v>1</v>
+      </c>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="s">
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>217</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2239,8 +2478,8 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E14:E51,E53:E66">
-    <cfRule priority="2" type="iconSet">
+  <conditionalFormatting sqref="E52">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -2248,21 +2487,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule priority="3" type="iconSet">
-      <iconSet iconSet="3Symbols2">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup scale="67" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>